--- a/Global Game Jam 2025/Assets/Datas/ComicItemDatas.xlsx
+++ b/Global Game Jam 2025/Assets/Datas/ComicItemDatas.xlsx
@@ -1001,7 +1001,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="5"/>

--- a/Global Game Jam 2025/Assets/Datas/ComicItemDatas.xlsx
+++ b/Global Game Jam 2025/Assets/Datas/ComicItemDatas.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\Git\Wowo666\Global Game Jam 2025\Assets\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2071F919-3A56-453D-B9D8-17BB6633A323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23320" windowHeight="13120"/>
   </bookViews>
   <sheets>
     <sheet name="Datas" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -43,17 +37,20 @@
     <t>name</t>
   </si>
   <si>
-    <t>1;1001</t>
-  </si>
-  <si>
     <t>0;0;0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,31 +62,354 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="PingFang SC Regular"/>
-      <family val="1"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="PingFang SC Regular"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -97,9 +417,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -115,17 +677,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -383,28 +989,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="20.6328125" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" customWidth="1"/>
-    <col min="4" max="4" width="21.6328125" customWidth="1"/>
-    <col min="5" max="5" width="20.36328125" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="2" max="2" width="20.5961538461538" customWidth="1"/>
+    <col min="3" max="3" width="15.9038461538462" customWidth="1"/>
+    <col min="4" max="4" width="21.6730769230769" customWidth="1"/>
+    <col min="5" max="5" width="20.3557692307692" customWidth="1"/>
+    <col min="6" max="6" width="18.3076923076923" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.5">
+    <row r="1" ht="17.6" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,30 +1032,29 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F4">
+  <sortState ref="A2:F4">
     <sortCondition ref="A2"/>
   </sortState>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Global Game Jam 2025/Assets/Datas/ComicItemDatas.xlsx
+++ b/Global Game Jam 2025/Assets/Datas/ComicItemDatas.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>spriteName</t>
+    <t>prefabName</t>
   </si>
   <si>
     <t>bubble1</t>
@@ -34,10 +34,28 @@
     <t>positionStr</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>0;0;0</t>
+    <t>ComicItem_1-1</t>
+  </si>
+  <si>
+    <t>-0.22;5.74;0</t>
+  </si>
+  <si>
+    <t>ComicItem_1-2</t>
+  </si>
+  <si>
+    <t>-0.16;-0.41;0</t>
+  </si>
+  <si>
+    <t>ComicItem_1-3</t>
+  </si>
+  <si>
+    <t>-3.72;-4.93;0</t>
+  </si>
+  <si>
+    <t>ComicItem_1-4</t>
+  </si>
+  <si>
+    <t>0;-6.97;0</t>
   </si>
 </sst>
 </file>
@@ -674,6 +692,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -995,13 +1016,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="20.5961538461538" customWidth="1"/>
     <col min="3" max="3" width="15.9038461538462" customWidth="1"/>
@@ -1030,24 +1051,82 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" ht="17.6" spans="1:6">
+      <c r="A2" s="1">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
+      <c r="C2" s="1">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="17.6" spans="1:6">
+      <c r="A3" s="1">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" ht="17.6" spans="1:6">
+      <c r="A4" s="1">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="17.6" spans="1:6">
+      <c r="A5" s="1">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Global Game Jam 2025/Assets/Datas/ComicItemDatas.xlsx
+++ b/Global Game Jam 2025/Assets/Datas/ComicItemDatas.xlsx
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1061,9 +1061,7 @@
       <c r="C2" s="1">
         <v>12</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="2">
         <v>0</v>
       </c>
@@ -1079,10 +1077,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
         <v>13</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -1130,7 +1128,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F4">
+  <sortState ref="A2:G4">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Global Game Jam 2025/Assets/Datas/ComicItemDatas.xlsx
+++ b/Global Game Jam 2025/Assets/Datas/ComicItemDatas.xlsx
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1077,10 +1077,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="1">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
         <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>13</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>

--- a/Global Game Jam 2025/Assets/Datas/ComicItemDatas.xlsx
+++ b/Global Game Jam 2025/Assets/Datas/ComicItemDatas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -31,31 +31,19 @@
     <t>bubble3</t>
   </si>
   <si>
-    <t>positionStr</t>
-  </si>
-  <si>
     <t>ComicItem_1-1</t>
-  </si>
-  <si>
-    <t>-0.22;5.74;0</t>
   </si>
   <si>
     <t>ComicItem_1-2</t>
   </si>
   <si>
-    <t>-0.16;-0.41;0</t>
+    <t xml:space="preserve">  </t>
   </si>
   <si>
     <t>ComicItem_1-3</t>
   </si>
   <si>
-    <t>-3.72;-4.93;0</t>
-  </si>
-  <si>
     <t>ComicItem_1-4</t>
-  </si>
-  <si>
-    <t>0;-6.97;0</t>
   </si>
 </sst>
 </file>
@@ -683,18 +671,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1016,22 +998,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="20.5961538461538" customWidth="1"/>
     <col min="3" max="3" width="15.9038461538462" customWidth="1"/>
     <col min="4" max="4" width="21.6730769230769" customWidth="1"/>
     <col min="5" max="5" width="20.3557692307692" customWidth="1"/>
-    <col min="6" max="6" width="18.3076923076923" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.6" spans="1:6">
+    <row r="1" ht="17.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1047,16 +1028,13 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" ht="17.6" spans="1:6">
+    <row r="2" ht="17.6" spans="1:5">
       <c r="A2" s="1">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>12</v>
@@ -1065,36 +1043,30 @@
       <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" ht="17.6" spans="1:6">
+    <row r="3" ht="17.6" spans="1:5">
       <c r="A3" s="1">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1">
         <v>13</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="4" ht="17.6" spans="1:6">
+    <row r="4" ht="17.6" spans="1:5">
       <c r="A4" s="1">
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>14</v>
@@ -1105,16 +1077,13 @@
       <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="5" ht="17.6" spans="1:6">
+    <row r="5" ht="17.6" spans="1:5">
       <c r="A5" s="1">
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
@@ -1122,9 +1091,6 @@
       </c>
       <c r="E5" s="2">
         <v>0</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Global Game Jam 2025/Assets/Datas/ComicItemDatas.xlsx
+++ b/Global Game Jam 2025/Assets/Datas/ComicItemDatas.xlsx
@@ -37,13 +37,13 @@
     <t>ComicItem_1-2</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>ComicItem_1-3</t>
   </si>
   <si>
     <t>ComicItem_1-4</t>
+  </si>
+  <si>
+    <t>ComicItem_0-1</t>
   </si>
 </sst>
 </file>
@@ -998,13 +998,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="20.5961538461538" customWidth="1"/>
     <col min="3" max="3" width="15.9038461538462" customWidth="1"/>
@@ -1039,7 +1039,9 @@
       <c r="C2" s="1">
         <v>12</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
@@ -1054,8 +1056,8 @@
       <c r="C3" s="1">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
+      <c r="D3" s="1">
+        <v>0</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -1066,7 +1068,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
         <v>14</v>
@@ -1083,15 +1085,51 @@
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
+    </row>
+    <row r="6" ht="17.6" spans="1:6">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" ht="17.6" spans="1:6">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" ht="17.6" spans="1:6">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A2:G4">

--- a/Global Game Jam 2025/Assets/Datas/ComicItemDatas.xlsx
+++ b/Global Game Jam 2025/Assets/Datas/ComicItemDatas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -31,6 +31,9 @@
     <t>bubble3</t>
   </si>
   <si>
+    <t>bubble4</t>
+  </si>
+  <si>
     <t>ComicItem_1-1</t>
   </si>
   <si>
@@ -44,6 +47,36 @@
   </si>
   <si>
     <t>ComicItem_0-1</t>
+  </si>
+  <si>
+    <t>ComicItem_2-2</t>
+  </si>
+  <si>
+    <t>ComicItem_2-3</t>
+  </si>
+  <si>
+    <t>ComicItem_2-4</t>
+  </si>
+  <si>
+    <t>ComicItem_2-5</t>
+  </si>
+  <si>
+    <t>ComicItem_3-2</t>
+  </si>
+  <si>
+    <t>ComicItem_3-3</t>
+  </si>
+  <si>
+    <t>ComicItem_3-4</t>
+  </si>
+  <si>
+    <t>ComicItem_3-5</t>
+  </si>
+  <si>
+    <t>ComicItem_3-6</t>
+  </si>
+  <si>
+    <t>ComicItem_3-7</t>
   </si>
 </sst>
 </file>
@@ -998,13 +1031,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="20.5961538461538" customWidth="1"/>
     <col min="3" max="3" width="15.9038461538462" customWidth="1"/>
@@ -1012,7 +1045,7 @@
     <col min="5" max="5" width="20.3557692307692" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.6" spans="1:5">
+    <row r="1" ht="17.6" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1027,6 +1060,9 @@
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:5">
@@ -1034,16 +1070,16 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
         <v>12</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:5">
@@ -1051,7 +1087,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>13</v>
@@ -1068,7 +1104,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>14</v>
@@ -1085,7 +1121,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1102,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
         <v>11</v>
@@ -1116,20 +1152,184 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" ht="17.6" spans="1:6">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="A7" s="1">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" ht="17.6" spans="1:6">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="A8" s="1">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
       <c r="F8" s="1"/>
+    </row>
+    <row r="9" ht="17.6" spans="1:6">
+      <c r="A9" s="1">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" ht="17.6" spans="1:6">
+      <c r="A10" s="1">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" ht="17.6" spans="1:6">
+      <c r="A11" s="1">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" ht="17.6" spans="1:6">
+      <c r="A12" s="1">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" ht="17.6" spans="1:6">
+      <c r="A13" s="1">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" ht="17.6" spans="1:6">
+      <c r="A14" s="1">
+        <v>35</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>36</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" ht="17.6" spans="1:6">
+      <c r="A15" s="1">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1">
+        <v>37</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" ht="17.6" spans="1:6">
+      <c r="A16" s="1">
+        <v>37</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A2:G4">

--- a/Global Game Jam 2025/Assets/Datas/ComicItemDatas.xlsx
+++ b/Global Game Jam 2025/Assets/Datas/ComicItemDatas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -49,6 +49,12 @@
     <t>ComicItem_0-1</t>
   </si>
   <si>
+    <t>ComicItem_0-2</t>
+  </si>
+  <si>
+    <t>ComicItem_0-3</t>
+  </si>
+  <si>
     <t>ComicItem_2-2</t>
   </si>
   <si>
@@ -77,6 +83,12 @@
   </si>
   <si>
     <t>ComicItem_3-7</t>
+  </si>
+  <si>
+    <t>ComicItem_4-3</t>
+  </si>
+  <si>
+    <t>ComicItem_4-4</t>
   </si>
 </sst>
 </file>
@@ -1031,10 +1043,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1065,7 +1077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="17.6" spans="1:5">
+    <row r="2" ht="17.6" spans="1:6">
       <c r="A2" s="1">
         <v>11</v>
       </c>
@@ -1081,8 +1093,11 @@
       <c r="E2" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" ht="17.6" spans="1:5">
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="17.6" spans="1:6">
       <c r="A3" s="1">
         <v>12</v>
       </c>
@@ -1098,8 +1113,11 @@
       <c r="E3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" ht="17.6" spans="1:5">
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="17.6" spans="1:6">
       <c r="A4" s="1">
         <v>13</v>
       </c>
@@ -1115,8 +1133,11 @@
       <c r="E4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" ht="17.6" spans="1:5">
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="17.6" spans="1:6">
       <c r="A5" s="1">
         <v>14</v>
       </c>
@@ -1131,6 +1152,9 @@
       </c>
       <c r="E5" s="2">
         <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>44</v>
       </c>
     </row>
     <row r="6" ht="17.6" spans="1:6">
@@ -1149,17 +1173,19 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" ht="17.6" spans="1:6">
       <c r="A7" s="1">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -1167,17 +1193,19 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" ht="17.6" spans="1:6">
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="17.6" spans="1:6">
       <c r="A8" s="1">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -1185,17 +1213,19 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" ht="17.6" spans="1:6">
       <c r="A9" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -1203,17 +1233,19 @@
       <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" ht="17.6" spans="1:6">
       <c r="A10" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -1221,17 +1253,19 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" ht="17.6" spans="1:6">
       <c r="A11" s="1">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="1">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -1239,17 +1273,19 @@
       <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" ht="17.6" spans="1:6">
       <c r="A12" s="1">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="1">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -1257,17 +1293,19 @@
       <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" ht="17.6" spans="1:6">
       <c r="A13" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -1275,35 +1313,39 @@
       <c r="E13" s="1">
         <v>0</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" ht="17.6" spans="1:6">
       <c r="A14" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" ht="17.6" spans="1:6">
       <c r="A15" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="1">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -1311,17 +1353,19 @@
       <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="2">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" ht="17.6" spans="1:6">
       <c r="A16" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -1329,7 +1373,89 @@
       <c r="E16" s="1">
         <v>0</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="17.6" spans="1:6">
+      <c r="A17" s="1">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1">
+        <v>37</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="17.6" spans="1:6">
+      <c r="A18" s="1">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="17.6" spans="1:6">
+      <c r="A19" s="1">
+        <v>43</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="17.6" spans="1:6">
+      <c r="A20" s="1">
+        <v>44</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:G4">

--- a/Global Game Jam 2025/Assets/Datas/ComicItemDatas.xlsx
+++ b/Global Game Jam 2025/Assets/Datas/ComicItemDatas.xlsx
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1085,7 +1085,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1">
         <v>22</v>
@@ -1405,7 +1405,7 @@
         <v>22</v>
       </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>

--- a/Global Game Jam 2025/Assets/Datas/ComicItemDatas.xlsx
+++ b/Global Game Jam 2025/Assets/Datas/ComicItemDatas.xlsx
@@ -1085,7 +1085,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1">
         <v>22</v>

--- a/Global Game Jam 2025/Assets/Datas/ComicItemDatas.xlsx
+++ b/Global Game Jam 2025/Assets/Datas/ComicItemDatas.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\Git\Wowo666\Global Game Jam 2025\Assets\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8988351B-9217-42E6-8490-D73652EEFA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23320" windowHeight="13120"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datas" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>id</t>
   </si>
@@ -89,19 +95,21 @@
   </si>
   <si>
     <t>ComicItem_4-4</t>
+  </si>
+  <si>
+    <t>achievement</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlockBubble</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,354 +121,31 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="PingFang SC Regular"/>
-      <charset val="128"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="PingFang SC Regular"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -468,251 +153,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -720,66 +163,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1037,27 +436,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="20.5961538461538" customWidth="1"/>
-    <col min="3" max="3" width="15.9038461538462" customWidth="1"/>
-    <col min="4" max="4" width="21.6730769230769" customWidth="1"/>
-    <col min="5" max="5" width="20.3557692307692" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.6" spans="1:6">
+    <row r="1" spans="1:8" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1076,8 +477,14 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="17.6" spans="1:6">
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75">
       <c r="A2" s="1">
         <v>11</v>
       </c>
@@ -1096,8 +503,14 @@
       <c r="F2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" ht="17.6" spans="1:6">
+      <c r="G2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75">
       <c r="A3" s="1">
         <v>12</v>
       </c>
@@ -1116,8 +529,14 @@
       <c r="F3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" ht="17.6" spans="1:6">
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75">
       <c r="A4" s="1">
         <v>13</v>
       </c>
@@ -1136,8 +555,14 @@
       <c r="F4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" ht="17.6" spans="1:6">
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75">
       <c r="A5" s="1">
         <v>14</v>
       </c>
@@ -1156,8 +581,14 @@
       <c r="F5" s="2">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" ht="17.6" spans="1:6">
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1176,8 +607,14 @@
       <c r="F6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" ht="17.6" spans="1:6">
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1196,8 +633,14 @@
       <c r="F7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" customFormat="1" ht="17.6" spans="1:6">
+      <c r="G7" s="1">
+        <v>4</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -1216,8 +659,14 @@
       <c r="F8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" ht="17.6" spans="1:6">
+      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75">
       <c r="A9" s="1">
         <v>22</v>
       </c>
@@ -1236,8 +685,14 @@
       <c r="F9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" ht="17.6" spans="1:6">
+      <c r="G9" s="1">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75">
       <c r="A10" s="1">
         <v>23</v>
       </c>
@@ -1256,8 +711,14 @@
       <c r="F10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" ht="17.6" spans="1:6">
+      <c r="G10" s="1">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75">
       <c r="A11" s="1">
         <v>24</v>
       </c>
@@ -1276,8 +737,14 @@
       <c r="F11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" ht="17.6" spans="1:6">
+      <c r="G11" s="1">
+        <v>8</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75">
       <c r="A12" s="1">
         <v>25</v>
       </c>
@@ -1296,8 +763,14 @@
       <c r="F12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" ht="17.6" spans="1:6">
+      <c r="G12" s="1">
+        <v>9</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75">
       <c r="A13" s="1">
         <v>32</v>
       </c>
@@ -1316,8 +789,14 @@
       <c r="F13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" ht="17.6" spans="1:6">
+      <c r="G13" s="1">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75">
       <c r="A14" s="1">
         <v>33</v>
       </c>
@@ -1336,8 +815,14 @@
       <c r="F14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" ht="17.6" spans="1:6">
+      <c r="G14" s="1">
+        <v>11</v>
+      </c>
+      <c r="H14" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75">
       <c r="A15" s="1">
         <v>34</v>
       </c>
@@ -1356,8 +841,14 @@
       <c r="F15" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" ht="17.6" spans="1:6">
+      <c r="G15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75">
       <c r="A16" s="1">
         <v>35</v>
       </c>
@@ -1376,8 +867,14 @@
       <c r="F16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" ht="17.6" spans="1:6">
+      <c r="G16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75">
       <c r="A17" s="1">
         <v>36</v>
       </c>
@@ -1396,8 +893,14 @@
       <c r="F17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" ht="17.6" spans="1:6">
+      <c r="G17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75">
       <c r="A18" s="1">
         <v>37</v>
       </c>
@@ -1416,8 +919,14 @@
       <c r="F18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" ht="17.6" spans="1:6">
+      <c r="G18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75">
       <c r="A19" s="1">
         <v>43</v>
       </c>
@@ -1436,8 +945,14 @@
       <c r="F19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" ht="17.6" spans="1:6">
+      <c r="G19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75">
       <c r="A20" s="1">
         <v>44</v>
       </c>
@@ -1456,12 +971,18 @@
       <c r="F20" s="1">
         <v>0</v>
       </c>
+      <c r="G20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G4">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
     <sortCondition ref="A2"/>
   </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Global Game Jam 2025/Assets/Datas/ComicItemDatas.xlsx
+++ b/Global Game Jam 2025/Assets/Datas/ComicItemDatas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\Git\Wowo666\Global Game Jam 2025\Assets\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8988351B-9217-42E6-8490-D73652EEFA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3133E081-629C-4AE8-B222-7CB714FF8863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,7 +445,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5"/>
@@ -599,13 +599,13 @@
         <v>11</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1">
         <v>3</v>

--- a/Global Game Jam 2025/Assets/Datas/ComicItemDatas.xlsx
+++ b/Global Game Jam 2025/Assets/Datas/ComicItemDatas.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProjects\Git\Wowo666\Global Game Jam 2025\Assets\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3133E081-629C-4AE8-B222-7CB714FF8863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27760" windowHeight="12980"/>
   </bookViews>
   <sheets>
     <sheet name="Datas" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -40,18 +34,45 @@
     <t>bubble4</t>
   </si>
   <si>
+    <t>achievement</t>
+  </si>
+  <si>
+    <t>unlockBubble</t>
+  </si>
+  <si>
+    <t>textDubbing</t>
+  </si>
+  <si>
     <t>ComicItem_1-1</t>
   </si>
   <si>
+    <t>12;1_1_1</t>
+  </si>
+  <si>
+    <t>22;1_1_2</t>
+  </si>
+  <si>
+    <t>32;1_1_3</t>
+  </si>
+  <si>
     <t>ComicItem_1-2</t>
   </si>
   <si>
+    <t>1_2</t>
+  </si>
+  <si>
     <t>ComicItem_1-3</t>
   </si>
   <si>
+    <t>1_3</t>
+  </si>
+  <si>
     <t>ComicItem_1-4</t>
   </si>
   <si>
+    <t>1_4</t>
+  </si>
+  <si>
     <t>ComicItem_0-1</t>
   </si>
   <si>
@@ -95,21 +116,19 @@
   </si>
   <si>
     <t>ComicItem_4-4</t>
-  </si>
-  <si>
-    <t>achievement</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>unlockBubble</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,31 +140,354 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="PingFang SC Regular"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="PingFang SC Regular"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -153,13 +495,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -167,18 +751,63 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -436,19 +1065,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="20.625" customWidth="1"/>
     <col min="3" max="3" width="15.875" customWidth="1"/>
@@ -456,9 +1085,10 @@
     <col min="5" max="5" width="20.375" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="15.2884615384615" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
+    <row r="1" ht="17.6" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,28 +1108,31 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="17.6" spans="1:9">
       <c r="A2" s="1">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2">
-        <v>32</v>
-      </c>
       <c r="F2" s="2">
         <v>0</v>
       </c>
@@ -507,15 +1140,16 @@
         <v>-1</v>
       </c>
       <c r="H2" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" ht="17.6" spans="1:9">
       <c r="A3" s="1">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
         <v>13</v>
@@ -535,13 +1169,16 @@
       <c r="H3" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75">
+      <c r="I3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="17.6" spans="1:9">
       <c r="A4" s="1">
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1">
         <v>14</v>
@@ -561,13 +1198,16 @@
       <c r="H4" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75">
+      <c r="I4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="17.6" spans="1:9">
       <c r="A5" s="1">
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -587,13 +1227,16 @@
       <c r="H5" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75">
+      <c r="I5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" ht="17.6" spans="1:8">
       <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
         <v>11</v>
@@ -614,12 +1257,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75">
+    <row r="7" ht="17.6" spans="1:8">
       <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>11</v>
@@ -640,12 +1283,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75">
+    <row r="8" ht="17.6" spans="1:8">
       <c r="A8" s="1">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -666,12 +1309,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75">
+    <row r="9" ht="17.6" spans="1:8">
       <c r="A9" s="1">
         <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1">
         <v>23</v>
@@ -692,12 +1335,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75">
+    <row r="10" ht="17.6" spans="1:8">
       <c r="A10" s="1">
         <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1">
         <v>24</v>
@@ -718,12 +1361,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75">
+    <row r="11" ht="17.6" spans="1:8">
       <c r="A11" s="1">
         <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1">
         <v>25</v>
@@ -744,12 +1387,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75">
+    <row r="12" ht="17.6" spans="1:8">
       <c r="A12" s="1">
         <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -770,12 +1413,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75">
+    <row r="13" ht="17.6" spans="1:8">
       <c r="A13" s="1">
         <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1">
         <v>33</v>
@@ -796,12 +1439,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75">
+    <row r="14" ht="17.6" spans="1:8">
       <c r="A14" s="1">
         <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1">
         <v>34</v>
@@ -822,12 +1465,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75">
+    <row r="15" ht="17.6" spans="1:8">
       <c r="A15" s="1">
         <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -848,12 +1491,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75">
+    <row r="16" ht="17.6" spans="1:8">
       <c r="A16" s="1">
         <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1">
         <v>36</v>
@@ -874,12 +1517,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75">
+    <row r="17" ht="17.6" spans="1:8">
       <c r="A17" s="1">
         <v>36</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1">
         <v>37</v>
@@ -900,12 +1543,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75">
+    <row r="18" ht="17.6" spans="1:8">
       <c r="A18" s="1">
         <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
@@ -926,12 +1569,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75">
+    <row r="19" ht="17.6" spans="1:8">
       <c r="A19" s="1">
         <v>43</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -952,12 +1595,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75">
+    <row r="20" ht="17.6" spans="1:8">
       <c r="A20" s="1">
         <v>44</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -979,10 +1622,10 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G4">
+  <sortState ref="A2:G4">
     <sortCondition ref="A2"/>
   </sortState>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Global Game Jam 2025/Assets/Datas/ComicItemDatas.xlsx
+++ b/Global Game Jam 2025/Assets/Datas/ComicItemDatas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27760" windowHeight="12980"/>
+    <workbookView windowWidth="25960" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Datas" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -123,8 +123,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -156,46 +156,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,69 +234,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,6 +263,35 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -302,43 +302,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,139 +482,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,15 +529,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -553,6 +544,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -564,17 +575,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,145 +598,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="16.8"/>
@@ -1231,7 +1231,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="17.6" spans="1:8">
+    <row r="6" ht="17.6" spans="1:9">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1256,8 +1256,11 @@
       <c r="H6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" ht="17.6" spans="1:8">
+      <c r="I6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" ht="17.6" spans="1:9">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1282,8 +1285,11 @@
       <c r="H7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" ht="17.6" spans="1:8">
+      <c r="I7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" ht="17.6" spans="1:9">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -1308,8 +1314,11 @@
       <c r="H8" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" ht="17.6" spans="1:8">
+      <c r="I8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" ht="17.6" spans="1:9">
       <c r="A9" s="1">
         <v>22</v>
       </c>
@@ -1334,8 +1343,11 @@
       <c r="H9" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" ht="17.6" spans="1:8">
+      <c r="I9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" ht="17.6" spans="1:9">
       <c r="A10" s="1">
         <v>23</v>
       </c>
@@ -1360,8 +1372,11 @@
       <c r="H10" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="11" ht="17.6" spans="1:8">
+      <c r="I10" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="17.6" spans="1:9">
       <c r="A11" s="1">
         <v>24</v>
       </c>
@@ -1386,8 +1401,11 @@
       <c r="H11" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="12" ht="17.6" spans="1:8">
+      <c r="I11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" ht="17.6" spans="1:9">
       <c r="A12" s="1">
         <v>25</v>
       </c>
@@ -1412,8 +1430,11 @@
       <c r="H12" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="13" ht="17.6" spans="1:8">
+      <c r="I12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" ht="17.6" spans="1:9">
       <c r="A13" s="1">
         <v>32</v>
       </c>
@@ -1438,8 +1459,11 @@
       <c r="H13" s="1">
         <v>-1</v>
       </c>
-    </row>
-    <row r="14" ht="17.6" spans="1:8">
+      <c r="I13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="17.6" spans="1:9">
       <c r="A14" s="1">
         <v>33</v>
       </c>
@@ -1463,6 +1487,9 @@
       </c>
       <c r="H14" s="1">
         <v>-1</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="17.6" spans="1:8">
